--- a/k03/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
+++ b/k03/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\資格対策\k02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\資格対策\k03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
   </bookViews>
   <sheets>
-    <sheet name="10月21日" sheetId="10" r:id="rId1"/>
-    <sheet name="8月26日" sheetId="8" r:id="rId2"/>
-    <sheet name="7月22日" sheetId="2" r:id="rId3"/>
-    <sheet name="7月8日" sheetId="3" r:id="rId4"/>
-    <sheet name="7月1日" sheetId="4" r:id="rId5"/>
-    <sheet name="6月24日" sheetId="5" r:id="rId6"/>
-    <sheet name="6月17日" sheetId="6" r:id="rId7"/>
-    <sheet name="6月3日" sheetId="7" r:id="rId8"/>
-    <sheet name="テンプレート" sheetId="9" r:id="rId9"/>
+    <sheet name="10月28日" sheetId="11" r:id="rId1"/>
+    <sheet name="10月21日" sheetId="10" r:id="rId2"/>
+    <sheet name="8月26日" sheetId="8" r:id="rId3"/>
+    <sheet name="7月22日" sheetId="2" r:id="rId4"/>
+    <sheet name="7月8日" sheetId="3" r:id="rId5"/>
+    <sheet name="7月1日" sheetId="4" r:id="rId6"/>
+    <sheet name="6月24日" sheetId="5" r:id="rId7"/>
+    <sheet name="6月17日" sheetId="6" r:id="rId8"/>
+    <sheet name="6月3日" sheetId="7" r:id="rId9"/>
+    <sheet name="テンプレート" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
   <si>
     <t>資格対策Ⅲ　学習記録ワークシート</t>
     <rPh sb="0" eb="2">
@@ -2126,6 +2127,170 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年前期過去問題 21問c
+https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_25a.pdf</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カコモンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベジェ曲線の正確な形状は数式で求められるが、曲線を再帰的に分割する方法でも求められる。この方法を何とよぶか</t>
+    <rPh sb="3" eb="5">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>サイキテキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細分割法</t>
+    <rPh sb="0" eb="4">
+      <t>サイブンカツホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年前期過去問題 21問d
+https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_26a.pdf</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カコモンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベジェ曲線は図2,図3のようにP0～P3を含む最小の凸多角形に含まれるという性質をもつ、この性質を何とよぶか</t>
+    <rPh sb="3" eb="5">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>トツタカッケイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイシツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイシツ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凸包性</t>
+    <rPh sb="0" eb="2">
+      <t>トツホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年前期過去問題 22問a
+https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_27a.pdf</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カコモンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光沢のあるプラスチックなどの鏡面反射の計算方法の一つに〇〇の鏡面反射モデルがある</t>
+    <rPh sb="0" eb="2">
+      <t>コウタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ケイサンホウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>キョウメンハンシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2270,6 +2435,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
+      <xdr:colOff>155913</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2909875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1911107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6221433" y="2362200"/>
+          <a:ext cx="2753962" cy="1149107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>632461</xdr:rowOff>
@@ -2402,7 +2616,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2583,7 +2797,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2676,7 +2890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2769,7 +2983,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2950,7 +3164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3043,7 +3257,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3092,7 +3306,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3406,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3453,6 +3667,1358 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>45593</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45593</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>45593</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="42.796875" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="27.69921875" customWidth="1"/>
+    <col min="7" max="7" width="26.3984375" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="42.796875" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="27.69921875" customWidth="1"/>
+    <col min="7" max="7" width="26.3984375" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
@@ -4143,7 +5709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -4868,7 +6434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -5590,7 +7156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -6287,7 +7853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -7025,7 +8591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -7737,7 +9303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -8422,7 +9988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -9130,661 +10696,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="42.796875" customWidth="1"/>
-    <col min="5" max="5" width="40.5" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" customWidth="1"/>
-    <col min="7" max="7" width="26.3984375" customWidth="1"/>
-    <col min="8" max="8" width="47" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>41</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="1">
-        <v>45</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="1">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="1">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="1">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/k03/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
+++ b/k03/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
   <si>
     <t>資格対策Ⅲ　学習記録ワークシート</t>
     <rPh sb="0" eb="2">
@@ -2273,7 +2273,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>光沢のあるプラスチックなどの鏡面反射の計算方法の一つに〇〇の鏡面反射モデルがある</t>
+    <t>光沢のあるプラスチックなどの鏡面反射の計算方法の一つに〇〇の鏡面反射モデルがある図はモデルのハイライト特性を制御するパラメーターを変更させた例である。〇〇とは何か</t>
     <rPh sb="0" eb="2">
       <t>コウタク</t>
     </rPh>
@@ -2291,6 +2291,39 @@
     </rPh>
     <rPh sb="30" eb="34">
       <t>キョウメンハンシャ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランバード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランバード反射：目に映る物体の色は物体自身の色を反映してる。反射角に近づくほど明るく、遠のくほど暗くなる。光が強いほど入射光の色の影響を受ける</t>
+    <rPh sb="5" eb="7">
+      <t>ハンシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2468,6 +2501,50 @@
         <a:xfrm>
           <a:off x="6221433" y="2362200"/>
           <a:ext cx="2753962" cy="1149107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>970600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2999344</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1484148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6126479" y="4552000"/>
+          <a:ext cx="2938385" cy="513548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3620,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3715,7 +3792,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="125.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3728,12 +3805,18 @@
       <c r="D6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -4307,7 +4390,8 @@
     <hyperlink ref="D6" r:id="rId3" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
